--- a/Assets/locales.xlsx
+++ b/Assets/locales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\Projects\UWP\WSBManager\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3F6CC7-ED3B-4658-93D8-E6B7BB6CFC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B4C94E-6795-46A4-B8AE-1F381F46F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="480">
   <si>
     <t>Project</t>
   </si>
@@ -256,12 +256,6 @@
     <t>FailedLaunchSandboxDialog</t>
   </si>
   <si>
-    <t>Failed to launch sandbox '{0}'.</t>
-  </si>
-  <si>
-    <t>サンドボックス '{0}' の起動に失敗しました。</t>
-  </si>
-  <si>
     <t>FailedToExportDialog</t>
   </si>
   <si>
@@ -383,12 +377,6 @@
   </si>
   <si>
     <t>MemoryInMBLabel.Text</t>
-  </si>
-  <si>
-    <t>Memory usage</t>
-  </si>
-  <si>
-    <t>メモリ使用量</t>
   </si>
   <si>
     <t>MemoryInMBUsageLabel.Text</t>
@@ -1609,6 +1597,85 @@
     <t>デフォルトでは、クリップボードのリダイレクトは有効です。</t>
     <rPh sb="23" eb="25">
       <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserGuideEditMemoryInMB.Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserGuideEditMemoryInMBDesc.Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory usage specification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select whether to enable or disable the memory usage specification and specifies amount in MB on the sandbox.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ使用量の指定</t>
+    <rPh sb="3" eb="6">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドボックス上でのメモリ使用量の指定の有効・無効を選択し、その量をMB単位で指定します。</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ使用量の指定</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSB Manager can create and edit Windows Sandbox configuration files on the GUI.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSB Manager is released under open source (Apache License 2.0).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to launch sandbox '{0}'.
+(Try exporting the sandbox configuration to a file and booting from it.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンドボックス '{0}' の起動に失敗しました。
+（サンドボックスの構成をファイルにエクスポートして、そこから起動することをお試しください。）</t>
+    <rPh sb="35" eb="37">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1653,11 +1720,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1972,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167:K170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2283,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>476</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -2318,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>477</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -2794,7 +2865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2807,26 +2878,26 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>78</v>
+      <c r="E24" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
-        <v>78</v>
+      <c r="G24" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
-      <c r="I24" t="s">
-        <v>79</v>
+      <c r="I24" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="J24" t="s">
         <v>4</v>
       </c>
-      <c r="K24" t="s">
-        <v>79</v>
+      <c r="K24" s="2" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -2837,31 +2908,31 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" t="s">
-        <v>82</v>
-      </c>
       <c r="J25" t="s">
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -2872,31 +2943,31 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
         <v>83</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>85</v>
-      </c>
       <c r="J26" t="s">
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -2907,31 +2978,31 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
       <c r="J27" t="s">
         <v>4</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -2942,31 +3013,31 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" t="s">
-        <v>91</v>
-      </c>
       <c r="J28" t="s">
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -2977,31 +3048,31 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" t="s">
-        <v>94</v>
-      </c>
       <c r="J29" t="s">
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -3012,31 +3083,31 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>97</v>
-      </c>
       <c r="J30" t="s">
         <v>4</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -3047,31 +3118,31 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
         <v>98</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>100</v>
-      </c>
       <c r="J31" t="s">
         <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -3082,31 +3153,31 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>101</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>103</v>
-      </c>
       <c r="J32" t="s">
         <v>4</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -3117,31 +3188,31 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
         <v>104</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
       <c r="J33" t="s">
         <v>4</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -3152,31 +3223,31 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
         <v>107</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>109</v>
-      </c>
       <c r="J34" t="s">
         <v>4</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -3187,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -3222,31 +3293,31 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
         <v>111</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>113</v>
-      </c>
       <c r="J36" t="s">
         <v>4</v>
       </c>
       <c r="K36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -3257,31 +3328,31 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
         <v>114</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
       <c r="J37" t="s">
         <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -3292,31 +3363,31 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>119</v>
-      </c>
       <c r="J38" t="s">
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -3327,31 +3398,31 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>471</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>471</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>475</v>
       </c>
       <c r="J39" t="s">
         <v>4</v>
       </c>
       <c r="K39" t="s">
-        <v>122</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -3362,31 +3433,31 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -3397,31 +3468,31 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -3432,31 +3503,31 @@
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J42" t="s">
         <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -3467,31 +3538,31 @@
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
         <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -3502,31 +3573,31 @@
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
         <v>4</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -3537,31 +3608,31 @@
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J45" t="s">
         <v>4</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -3572,31 +3643,31 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J46" t="s">
         <v>4</v>
       </c>
       <c r="K46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -3607,31 +3678,31 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J47" t="s">
         <v>4</v>
       </c>
       <c r="K47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -3642,31 +3713,31 @@
         <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J48" t="s">
         <v>4</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -3677,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -3695,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J49" t="s">
         <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -3712,31 +3783,31 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
         <v>4</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -3747,31 +3818,31 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J51" t="s">
         <v>4</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -3782,31 +3853,31 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J52" t="s">
         <v>4</v>
       </c>
       <c r="K52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3817,31 +3888,31 @@
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J53" t="s">
         <v>4</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -3852,7 +3923,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -3887,31 +3958,31 @@
         <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J55" t="s">
         <v>4</v>
       </c>
       <c r="K55" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -3922,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -3957,31 +4028,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J57" t="s">
         <v>4</v>
       </c>
       <c r="K57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -3992,7 +4063,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -4027,31 +4098,31 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
       </c>
       <c r="I59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J59" t="s">
         <v>4</v>
       </c>
       <c r="K59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -4062,31 +4133,31 @@
         <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J60" t="s">
         <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -4097,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -4132,31 +4203,31 @@
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J62" t="s">
         <v>4</v>
       </c>
       <c r="K62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -4167,31 +4238,31 @@
         <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J63" t="s">
         <v>4</v>
       </c>
       <c r="K63" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -4202,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -4237,31 +4308,31 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F65" t="s">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
       </c>
       <c r="I65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J65" t="s">
         <v>4</v>
       </c>
       <c r="K65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -4272,31 +4343,31 @@
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J66" t="s">
         <v>4</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -4307,31 +4378,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J67" t="s">
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -4342,31 +4413,31 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J68" t="s">
         <v>4</v>
       </c>
       <c r="K68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -4377,31 +4448,31 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
       </c>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J69" t="s">
         <v>4</v>
       </c>
       <c r="K69" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
@@ -4412,31 +4483,31 @@
         <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J70" t="s">
         <v>4</v>
       </c>
       <c r="K70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
@@ -4447,31 +4518,31 @@
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F71" t="s">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
       </c>
       <c r="I71" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J71" t="s">
         <v>4</v>
       </c>
       <c r="K71" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
@@ -4482,31 +4553,31 @@
         <v>12</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
       </c>
       <c r="I72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J72" t="s">
         <v>4</v>
       </c>
       <c r="K72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -4517,31 +4588,31 @@
         <v>12</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
         <v>4</v>
       </c>
       <c r="K73" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
@@ -4552,31 +4623,31 @@
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J74" t="s">
         <v>4</v>
       </c>
       <c r="K74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -4587,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -4622,31 +4693,31 @@
         <v>12</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J76" t="s">
         <v>4</v>
       </c>
       <c r="K76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -4657,31 +4728,31 @@
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J77" t="s">
         <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
@@ -4692,31 +4763,31 @@
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
       </c>
       <c r="I78" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J78" t="s">
         <v>4</v>
       </c>
       <c r="K78" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -4727,31 +4798,31 @@
         <v>12</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J79" t="s">
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -4762,31 +4833,31 @@
         <v>12</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J80" t="s">
         <v>4</v>
       </c>
       <c r="K80" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
@@ -4797,31 +4868,31 @@
         <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F81" t="s">
         <v>4</v>
       </c>
       <c r="G81" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
       </c>
       <c r="I81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J81" t="s">
         <v>4</v>
       </c>
       <c r="K81" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -4832,31 +4903,31 @@
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
       </c>
       <c r="G82" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J82" t="s">
         <v>4</v>
       </c>
       <c r="K82" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -4867,31 +4938,31 @@
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J83" t="s">
         <v>4</v>
       </c>
       <c r="K83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -4902,31 +4973,31 @@
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
       <c r="G84" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J84" t="s">
         <v>4</v>
       </c>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
@@ -4937,31 +5008,31 @@
         <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s">
         <v>4</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J85" t="s">
         <v>4</v>
       </c>
       <c r="K85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -4972,31 +5043,31 @@
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F86" t="s">
         <v>4</v>
       </c>
       <c r="G86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J86" t="s">
         <v>4</v>
       </c>
       <c r="K86" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -5007,31 +5078,31 @@
         <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
         <v>4</v>
       </c>
       <c r="G87" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J87" t="s">
         <v>4</v>
       </c>
       <c r="K87" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -5042,31 +5113,31 @@
         <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F88" t="s">
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J88" t="s">
         <v>4</v>
       </c>
       <c r="K88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -5077,31 +5148,31 @@
         <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F89" t="s">
         <v>4</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J89" t="s">
         <v>4</v>
       </c>
       <c r="K89" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -5112,31 +5183,31 @@
         <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J90" t="s">
         <v>4</v>
       </c>
       <c r="K90" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
@@ -5147,7 +5218,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -5165,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J91" t="s">
         <v>4</v>
       </c>
       <c r="K91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -5182,31 +5253,31 @@
         <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F92" t="s">
         <v>4</v>
       </c>
       <c r="G92" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J92" t="s">
         <v>4</v>
       </c>
       <c r="K92" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -5217,31 +5288,31 @@
         <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F93" t="s">
         <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J93" t="s">
         <v>4</v>
       </c>
       <c r="K93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -5252,31 +5323,31 @@
         <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F94" t="s">
         <v>4</v>
       </c>
       <c r="G94" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J94" t="s">
         <v>4</v>
       </c>
       <c r="K94" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -5287,31 +5358,31 @@
         <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F95" t="s">
         <v>4</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J95" t="s">
         <v>4</v>
       </c>
       <c r="K95" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -5322,31 +5393,31 @@
         <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
       </c>
       <c r="E96" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F96" t="s">
         <v>4</v>
       </c>
       <c r="G96" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J96" t="s">
         <v>4</v>
       </c>
       <c r="K96" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -5357,31 +5428,31 @@
         <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F97" t="s">
         <v>4</v>
       </c>
       <c r="G97" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J97" t="s">
         <v>4</v>
       </c>
       <c r="K97" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
@@ -5392,31 +5463,31 @@
         <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J98" t="s">
         <v>4</v>
       </c>
       <c r="K98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
@@ -5427,31 +5498,31 @@
         <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F99" t="s">
         <v>4</v>
       </c>
       <c r="G99" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J99" t="s">
         <v>4</v>
       </c>
       <c r="K99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -5462,31 +5533,31 @@
         <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
       </c>
       <c r="G100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J100" t="s">
         <v>4</v>
       </c>
       <c r="K100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
@@ -5497,31 +5568,31 @@
         <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F101" t="s">
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J101" t="s">
         <v>4</v>
       </c>
       <c r="K101" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
@@ -5532,31 +5603,31 @@
         <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J102" t="s">
         <v>4</v>
       </c>
       <c r="K102" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
@@ -5567,31 +5638,31 @@
         <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J103" t="s">
         <v>4</v>
       </c>
       <c r="K103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -5602,31 +5673,31 @@
         <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J104" t="s">
         <v>4</v>
       </c>
       <c r="K104" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5637,31 +5708,31 @@
         <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
       </c>
       <c r="G105" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J105" t="s">
         <v>4</v>
       </c>
       <c r="K105" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -5672,31 +5743,31 @@
         <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
       </c>
       <c r="I106" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J106" t="s">
         <v>4</v>
       </c>
       <c r="K106" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
@@ -5707,31 +5778,31 @@
         <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
       </c>
       <c r="G107" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="J107" t="s">
         <v>4</v>
       </c>
       <c r="K107" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -5742,31 +5813,31 @@
         <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J108" t="s">
         <v>4</v>
       </c>
       <c r="K108" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
@@ -5777,31 +5848,31 @@
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
       </c>
       <c r="I109" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J109" t="s">
         <v>4</v>
       </c>
       <c r="K109" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -5812,31 +5883,31 @@
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
       </c>
       <c r="E110" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
       </c>
       <c r="I110" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J110" t="s">
         <v>4</v>
       </c>
       <c r="K110" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
@@ -5847,31 +5918,31 @@
         <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
       </c>
       <c r="I111" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J111" t="s">
         <v>4</v>
       </c>
       <c r="K111" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
@@ -5882,31 +5953,31 @@
         <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J112" t="s">
         <v>4</v>
       </c>
       <c r="K112" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
@@ -5917,31 +5988,31 @@
         <v>12</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J113" t="s">
         <v>4</v>
       </c>
       <c r="K113" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
@@ -5952,31 +6023,31 @@
         <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
       </c>
       <c r="I114" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J114" t="s">
         <v>4</v>
       </c>
       <c r="K114" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
@@ -5987,31 +6058,31 @@
         <v>12</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
       </c>
       <c r="I115" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J115" t="s">
         <v>4</v>
       </c>
       <c r="K115" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
@@ -6022,31 +6093,31 @@
         <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
       </c>
       <c r="I116" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J116" t="s">
         <v>4</v>
       </c>
       <c r="K116" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -6057,31 +6128,31 @@
         <v>12</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
       <c r="E117" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
       </c>
       <c r="I117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J117" t="s">
         <v>4</v>
       </c>
       <c r="K117" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
@@ -6092,31 +6163,31 @@
         <v>12</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
       </c>
       <c r="E118" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J118" t="s">
         <v>4</v>
       </c>
       <c r="K118" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
@@ -6127,31 +6198,31 @@
         <v>12</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
       </c>
       <c r="E119" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J119" t="s">
         <v>4</v>
       </c>
       <c r="K119" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
@@ -6162,31 +6233,31 @@
         <v>12</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F120" t="s">
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
       </c>
       <c r="I120" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J120" t="s">
         <v>4</v>
       </c>
       <c r="K120" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
@@ -6197,31 +6268,31 @@
         <v>12</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
         <v>4</v>
       </c>
       <c r="G121" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
       </c>
       <c r="I121" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J121" t="s">
         <v>4</v>
       </c>
       <c r="K121" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
@@ -6232,31 +6303,31 @@
         <v>12</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
       </c>
       <c r="E122" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F122" t="s">
         <v>4</v>
       </c>
       <c r="G122" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
       </c>
       <c r="I122" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J122" t="s">
         <v>4</v>
       </c>
       <c r="K122" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
@@ -6267,31 +6338,31 @@
         <v>12</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F123" t="s">
         <v>4</v>
       </c>
       <c r="G123" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
       </c>
       <c r="I123" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J123" t="s">
         <v>4</v>
       </c>
       <c r="K123" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
@@ -6302,31 +6373,31 @@
         <v>12</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
       </c>
       <c r="E124" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F124" t="s">
         <v>4</v>
       </c>
       <c r="G124" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
       </c>
       <c r="I124" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J124" t="s">
         <v>4</v>
       </c>
       <c r="K124" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -6337,31 +6408,31 @@
         <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F125" t="s">
         <v>4</v>
       </c>
       <c r="G125" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J125" t="s">
         <v>4</v>
       </c>
       <c r="K125" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
@@ -6372,31 +6443,31 @@
         <v>12</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
       </c>
       <c r="E126" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F126" t="s">
         <v>4</v>
       </c>
       <c r="G126" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J126" t="s">
         <v>4</v>
       </c>
       <c r="K126" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
@@ -6407,31 +6478,31 @@
         <v>12</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
       </c>
       <c r="E127" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F127" t="s">
         <v>4</v>
       </c>
       <c r="G127" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
       </c>
       <c r="I127" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J127" t="s">
         <v>4</v>
       </c>
       <c r="K127" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
@@ -6442,31 +6513,31 @@
         <v>12</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
       </c>
       <c r="E128" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F128" t="s">
         <v>4</v>
       </c>
       <c r="G128" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J128" t="s">
         <v>4</v>
       </c>
       <c r="K128" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
@@ -6477,31 +6548,31 @@
         <v>12</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D129" t="s">
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F129" t="s">
         <v>4</v>
       </c>
       <c r="G129" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J129" t="s">
         <v>4</v>
       </c>
       <c r="K129" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -6512,31 +6583,31 @@
         <v>12</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F130" t="s">
         <v>4</v>
       </c>
       <c r="G130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J130" t="s">
         <v>4</v>
       </c>
       <c r="K130" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
@@ -6547,31 +6618,31 @@
         <v>12</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
       <c r="G131" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J131" t="s">
         <v>4</v>
       </c>
       <c r="K131" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
@@ -6582,31 +6653,31 @@
         <v>12</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
       </c>
       <c r="E132" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F132" t="s">
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
       </c>
       <c r="I132" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J132" t="s">
         <v>4</v>
       </c>
       <c r="K132" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
@@ -6617,31 +6688,31 @@
         <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F133" t="s">
         <v>4</v>
       </c>
       <c r="G133" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J133" t="s">
         <v>4</v>
       </c>
       <c r="K133" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
@@ -6652,31 +6723,31 @@
         <v>12</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
       </c>
       <c r="E134" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J134" t="s">
         <v>4</v>
       </c>
       <c r="K134" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
@@ -6687,31 +6758,31 @@
         <v>12</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
       <c r="G135" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
       </c>
       <c r="I135" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J135" t="s">
         <v>4</v>
       </c>
       <c r="K135" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
@@ -6722,31 +6793,31 @@
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F136" t="s">
         <v>4</v>
       </c>
       <c r="G136" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J136" t="s">
         <v>4</v>
       </c>
       <c r="K136" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
@@ -6757,31 +6828,31 @@
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F137" t="s">
         <v>4</v>
       </c>
       <c r="G137" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J137" t="s">
         <v>4</v>
       </c>
       <c r="K137" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -6792,31 +6863,31 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
       </c>
       <c r="E138" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
       <c r="G138" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J138" t="s">
         <v>4</v>
       </c>
       <c r="K138" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
@@ -6827,31 +6898,31 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
       </c>
       <c r="E139" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
       <c r="G139" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J139" t="s">
         <v>4</v>
       </c>
       <c r="K139" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -6862,31 +6933,31 @@
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
       </c>
       <c r="E140" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J140" t="s">
         <v>4</v>
       </c>
       <c r="K140" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -6897,31 +6968,31 @@
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
       </c>
       <c r="E141" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
       <c r="G141" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
       </c>
       <c r="I141" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J141" t="s">
         <v>4</v>
       </c>
       <c r="K141" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -6932,19 +7003,19 @@
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E142" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G142" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I142" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K142" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -6955,19 +7026,19 @@
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G143" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I143" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K143" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -6978,31 +7049,31 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
       <c r="G144" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J144" t="s">
         <v>4</v>
       </c>
       <c r="K144" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
@@ -7013,19 +7084,19 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
+        <v>389</v>
+      </c>
+      <c r="E145" t="s">
+        <v>392</v>
+      </c>
+      <c r="G145" t="s">
+        <v>392</v>
+      </c>
+      <c r="I145" t="s">
         <v>393</v>
       </c>
-      <c r="E145" t="s">
-        <v>396</v>
-      </c>
-      <c r="G145" t="s">
-        <v>396</v>
-      </c>
-      <c r="I145" t="s">
-        <v>397</v>
-      </c>
       <c r="K145" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
@@ -7036,54 +7107,54 @@
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E146" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G146" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I146" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K146" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
       </c>
       <c r="E147" t="s">
+        <v>400</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>400</v>
+      </c>
+      <c r="H147" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" t="s">
         <v>404</v>
       </c>
-      <c r="F147" t="s">
-        <v>4</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="J147" t="s">
+        <v>4</v>
+      </c>
+      <c r="K147" t="s">
         <v>404</v>
-      </c>
-      <c r="H147" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" t="s">
-        <v>408</v>
-      </c>
-      <c r="J147" t="s">
-        <v>4</v>
-      </c>
-      <c r="K147" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
@@ -7094,31 +7165,31 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
       <c r="G148" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
       </c>
       <c r="I148" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J148" t="s">
         <v>4</v>
       </c>
       <c r="K148" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
@@ -7129,31 +7200,31 @@
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
       </c>
       <c r="E149" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J149" t="s">
         <v>4</v>
       </c>
       <c r="K149" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
@@ -7164,31 +7235,31 @@
         <v>12</v>
       </c>
       <c r="C150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
         <v>402</v>
       </c>
-      <c r="D150" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" t="s">
-        <v>406</v>
-      </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J150" t="s">
         <v>4</v>
       </c>
       <c r="K150" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.4">
@@ -7199,66 +7270,66 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
       <c r="G151" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
       </c>
       <c r="I151" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J151" t="s">
         <v>4</v>
       </c>
       <c r="K151" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
       <c r="G152" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
       </c>
       <c r="I152" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J152" t="s">
         <v>4</v>
       </c>
       <c r="K152" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.4">
@@ -7269,31 +7340,31 @@
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
       </c>
       <c r="E153" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
       <c r="G153" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J153" t="s">
         <v>4</v>
       </c>
       <c r="K153" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.4">
@@ -7304,31 +7375,31 @@
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
       </c>
       <c r="E154" t="s">
+        <v>416</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>416</v>
+      </c>
+      <c r="H154" t="s">
+        <v>4</v>
+      </c>
+      <c r="I154" t="s">
         <v>420</v>
       </c>
-      <c r="F154" t="s">
-        <v>4</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="J154" t="s">
+        <v>4</v>
+      </c>
+      <c r="K154" t="s">
         <v>420</v>
-      </c>
-      <c r="H154" t="s">
-        <v>4</v>
-      </c>
-      <c r="I154" t="s">
-        <v>424</v>
-      </c>
-      <c r="J154" t="s">
-        <v>4</v>
-      </c>
-      <c r="K154" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.4">
@@ -7339,31 +7410,31 @@
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
       </c>
       <c r="E155" t="s">
+        <v>417</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>417</v>
+      </c>
+      <c r="H155" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" t="s">
         <v>421</v>
       </c>
-      <c r="F155" t="s">
-        <v>4</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="J155" t="s">
+        <v>4</v>
+      </c>
+      <c r="K155" t="s">
         <v>421</v>
-      </c>
-      <c r="H155" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" t="s">
-        <v>425</v>
-      </c>
-      <c r="J155" t="s">
-        <v>4</v>
-      </c>
-      <c r="K155" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.4">
@@ -7374,66 +7445,66 @@
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
       </c>
       <c r="E156" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
       <c r="G156" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
       </c>
       <c r="I156" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J156" t="s">
         <v>4</v>
       </c>
       <c r="K156" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
       </c>
       <c r="E157" t="s">
+        <v>430</v>
+      </c>
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>430</v>
+      </c>
+      <c r="H157" t="s">
+        <v>4</v>
+      </c>
+      <c r="I157" t="s">
         <v>434</v>
       </c>
-      <c r="F157" t="s">
-        <v>4</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="J157" t="s">
+        <v>4</v>
+      </c>
+      <c r="K157" t="s">
         <v>434</v>
-      </c>
-      <c r="H157" t="s">
-        <v>4</v>
-      </c>
-      <c r="I157" t="s">
-        <v>438</v>
-      </c>
-      <c r="J157" t="s">
-        <v>4</v>
-      </c>
-      <c r="K157" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.4">
@@ -7444,31 +7515,31 @@
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
       </c>
       <c r="E158" t="s">
+        <v>431</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>431</v>
+      </c>
+      <c r="H158" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" t="s">
         <v>435</v>
       </c>
-      <c r="F158" t="s">
-        <v>4</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="J158" t="s">
+        <v>4</v>
+      </c>
+      <c r="K158" t="s">
         <v>435</v>
-      </c>
-      <c r="H158" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" t="s">
-        <v>439</v>
-      </c>
-      <c r="J158" t="s">
-        <v>4</v>
-      </c>
-      <c r="K158" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.4">
@@ -7479,31 +7550,31 @@
         <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
       </c>
       <c r="E159" t="s">
+        <v>432</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>432</v>
+      </c>
+      <c r="H159" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" t="s">
         <v>436</v>
       </c>
-      <c r="F159" t="s">
-        <v>4</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="J159" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" t="s">
         <v>436</v>
-      </c>
-      <c r="H159" t="s">
-        <v>4</v>
-      </c>
-      <c r="I159" t="s">
-        <v>440</v>
-      </c>
-      <c r="J159" t="s">
-        <v>4</v>
-      </c>
-      <c r="K159" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.4">
@@ -7514,31 +7585,31 @@
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
       </c>
       <c r="E160" t="s">
+        <v>433</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>433</v>
+      </c>
+      <c r="H160" t="s">
+        <v>4</v>
+      </c>
+      <c r="I160" t="s">
         <v>437</v>
       </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-      <c r="G160" t="s">
+      <c r="J160" t="s">
+        <v>4</v>
+      </c>
+      <c r="K160" t="s">
         <v>437</v>
-      </c>
-      <c r="H160" t="s">
-        <v>4</v>
-      </c>
-      <c r="I160" t="s">
-        <v>441</v>
-      </c>
-      <c r="J160" t="s">
-        <v>4</v>
-      </c>
-      <c r="K160" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.4">
@@ -7549,66 +7620,66 @@
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
       </c>
       <c r="E161" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
       <c r="G161" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J161" t="s">
         <v>4</v>
       </c>
       <c r="K161" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
       <c r="G162" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
       </c>
       <c r="I162" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J162" t="s">
         <v>4</v>
       </c>
       <c r="K162" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.4">
@@ -7619,31 +7690,31 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
       <c r="G163" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
       </c>
       <c r="I163" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J163" t="s">
         <v>4</v>
       </c>
       <c r="K163" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -7654,31 +7725,31 @@
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
       </c>
       <c r="E164" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
       <c r="G164" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
       </c>
       <c r="I164" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J164" t="s">
         <v>4</v>
       </c>
       <c r="K164" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.4">
@@ -7689,31 +7760,31 @@
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F165" t="s">
         <v>4</v>
       </c>
       <c r="G165" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J165" t="s">
         <v>4</v>
       </c>
       <c r="K165" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.4">
@@ -7724,66 +7795,66 @@
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
       </c>
       <c r="E166" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
       </c>
       <c r="G166" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J166" t="s">
         <v>4</v>
       </c>
       <c r="K166" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
+        <v>455</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
         <v>459</v>
       </c>
-      <c r="D167" t="s">
-        <v>4</v>
-      </c>
-      <c r="E167" t="s">
-        <v>463</v>
-      </c>
       <c r="F167" t="s">
         <v>4</v>
       </c>
       <c r="G167" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
       </c>
       <c r="I167" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J167" t="s">
         <v>4</v>
       </c>
       <c r="K167" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.4">
@@ -7794,31 +7865,31 @@
         <v>12</v>
       </c>
       <c r="C168" t="s">
+        <v>456</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
         <v>460</v>
       </c>
-      <c r="D168" t="s">
-        <v>4</v>
-      </c>
-      <c r="E168" t="s">
-        <v>464</v>
-      </c>
       <c r="F168" t="s">
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J168" t="s">
         <v>4</v>
       </c>
       <c r="K168" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.4">
@@ -7829,31 +7900,31 @@
         <v>12</v>
       </c>
       <c r="C169" t="s">
+        <v>457</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
         <v>461</v>
       </c>
-      <c r="D169" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" t="s">
-        <v>465</v>
-      </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
       <c r="G169" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
       </c>
       <c r="I169" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J169" t="s">
         <v>4</v>
       </c>
       <c r="K169" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.4">
@@ -7864,31 +7935,101 @@
         <v>12</v>
       </c>
       <c r="C170" t="s">
+        <v>458</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
         <v>462</v>
       </c>
-      <c r="D170" t="s">
-        <v>4</v>
-      </c>
-      <c r="E170" t="s">
-        <v>466</v>
-      </c>
       <c r="F170" t="s">
         <v>4</v>
       </c>
       <c r="G170" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
       </c>
       <c r="I170" t="s">
+        <v>468</v>
+      </c>
+      <c r="J170" t="s">
+        <v>4</v>
+      </c>
+      <c r="K170" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>394</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" t="s">
+        <v>469</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>471</v>
+      </c>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>471</v>
+      </c>
+      <c r="H171" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" t="s">
+        <v>473</v>
+      </c>
+      <c r="J171" t="s">
+        <v>4</v>
+      </c>
+      <c r="K171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>470</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
         <v>472</v>
       </c>
-      <c r="J170" t="s">
-        <v>4</v>
-      </c>
-      <c r="K170" t="s">
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
         <v>472</v>
+      </c>
+      <c r="H172" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" t="s">
+        <v>474</v>
+      </c>
+      <c r="J172" t="s">
+        <v>4</v>
+      </c>
+      <c r="K172" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
